--- a/figs/tables/C_tab_watershed_ds_kr.xlsx
+++ b/figs/tables/C_tab_watershed_ds_kr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/karyan_usgs_gov/Documents/2 ANALYSIS/WROL/wrol R github repo/WROL/figs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A479AF4F-E801-478F-BE9D-E8E4BB04DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{A479AF4F-E801-478F-BE9D-E8E4BB04DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EB8648-4C95-4163-89A6-3C3BBE454D24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_tab_watershed_ds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,9 +92,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -588,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,13 +610,10 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -619,6 +629,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:J8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,30 +1008,30 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1025,32 +1040,32 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1210,6 +1225,45 @@
       </c>
       <c r="J8" s="4">
         <v>1.4510000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="12">
+        <f>AVERAGE(E5:E8)</f>
+        <v>4885.4184999999998</v>
+      </c>
+      <c r="F10" s="12">
+        <f>AVERAGE(F5:F8)</f>
+        <v>1025.9305000000002</v>
+      </c>
+      <c r="G10" s="13">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <f>AVERAGE(H4:H8)</f>
+        <v>2.6600000000000002E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <f>AVERAGE(I4:I8)</f>
+        <v>10.5982</v>
+      </c>
+      <c r="J10" s="13">
+        <f>AVERAGE(J4:J8)</f>
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
+      <c r="I11" s="13">
+        <f>I10-J10</f>
+        <v>9.273200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="13">
+        <f>I10+J10</f>
+        <v>11.9232</v>
       </c>
     </row>
   </sheetData>

--- a/figs/tables/C_tab_watershed_ds_kr.xlsx
+++ b/figs/tables/C_tab_watershed_ds_kr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/karyan_usgs_gov/Documents/2 ANALYSIS/WROL/wrol R github repo/WROL/figs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{A479AF4F-E801-478F-BE9D-E8E4BB04DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EB8648-4C95-4163-89A6-3C3BBE454D24}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:40009_{A479AF4F-E801-478F-BE9D-E8E4BB04DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B469EBB-E027-4C7E-A8DB-729517D52000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Watershed</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>x̅</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CHON</t>
   </si>
   <si>
     <r>
@@ -80,7 +86,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -93,8 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -232,20 +239,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -557,7 +565,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -600,42 +608,41 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -675,6 +682,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -989,245 +997,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="10" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="12" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>193</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>1.3839999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="8">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <v>7189.0309999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>439.37</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K4" s="11">
         <v>10.531000000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="11">
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>43</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>1.006</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <v>4119.9530000000004</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>1054.2660000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <v>0.183</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K5" s="11">
         <v>9.89</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="11">
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>52</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>1.2509999999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <v>4892.058</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>863.98900000000003</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>0.214</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="8">
         <v>2.3E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K6" s="11">
         <v>11.101000000000001</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="11">
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>29</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>1.506</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <v>1.1080000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <v>5001.241</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>1242.9970000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>0.218</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K7" s="11">
         <v>10.488</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="11">
         <v>1.73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>45</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>2.8849999999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>1.262</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <v>5528.4219999999996</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>942.47</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>0.23</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <v>2.7E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K8" s="11">
         <v>10.981</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="11">
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10" s="12">
         <f>AVERAGE(E5:E8)</f>
         <v>4885.4184999999998</v>
@@ -1244,35 +1296,19 @@
         <f>AVERAGE(H4:H8)</f>
         <v>2.6600000000000002E-2</v>
       </c>
-      <c r="I10" s="13">
-        <f>AVERAGE(I4:I8)</f>
-        <v>10.5982</v>
-      </c>
-      <c r="J10" s="13">
-        <f>AVERAGE(J4:J8)</f>
-        <v>1.325</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" s="12"/>
-      <c r="I11" s="13">
-        <f>I10-J10</f>
-        <v>9.273200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="13">
-        <f>I10+J10</f>
-        <v>11.9232</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
